--- a/src/test/resources/testdata/Leadsdata1.xlsx
+++ b/src/test/resources/testdata/Leadsdata1.xlsx
@@ -23,7 +23,7 @@
     <t>31021000001</t>
   </si>
   <si>
-    <t>17224135964263agykorn7l6zqgkk</t>
+    <t>1722515671391nzka6srbb44m4zmm</t>
   </si>
   <si>
     <t/>
